--- a/Cuadros  Samer.xlsx
+++ b/Cuadros  Samer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flia\Documents\GitHub\Samer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="195" windowWidth="17715" windowHeight="7875" tabRatio="923" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="195" windowWidth="17715" windowHeight="7875" tabRatio="923" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Salarios y carga Prestacional " sheetId="1" r:id="rId1"/>
@@ -15,17 +20,16 @@
     <sheet name="Costos Indirectos produccion" sheetId="11" r:id="rId6"/>
     <sheet name="Aportes" sheetId="6" r:id="rId7"/>
     <sheet name="PROYECCIONES DE VTAS EN UND." sheetId="20" r:id="rId8"/>
-    <sheet name="Hoja1" sheetId="19" r:id="rId9"/>
-    <sheet name="Proyeccion de ventas" sheetId="13" r:id="rId10"/>
-    <sheet name="Plan de Contingencia" sheetId="5" r:id="rId11"/>
-    <sheet name="IyE anuales" sheetId="15" r:id="rId12"/>
+    <sheet name="Proyeccion de ventas" sheetId="13" r:id="rId9"/>
+    <sheet name="Plan de Contingencia" sheetId="5" r:id="rId10"/>
+    <sheet name="IyE anuales" sheetId="15" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="145">
   <si>
     <t>CARGO</t>
   </si>
@@ -420,9 +424,6 @@
     <t>Jefe de desarrollo</t>
   </si>
   <si>
-    <t>Jefe de diseño y experiencia</t>
-  </si>
-  <si>
     <t>Jefe comercial</t>
   </si>
   <si>
@@ -457,6 +458,12 @@
   </si>
   <si>
     <t>Otros ingresos</t>
+  </si>
+  <si>
+    <t>Jefe de diseño y experiencia de usuario</t>
+  </si>
+  <si>
+    <t>Hosting</t>
   </si>
 </sst>
 </file>
@@ -964,7 +971,7 @@
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1137,7 +1144,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1207,6 +1213,35 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1234,11 +1269,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1260,6 +1307,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1294,50 +1344,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1353,6 +1359,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1401,7 +1410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1436,7 +1445,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1648,7 +1657,7 @@
   <dimension ref="B2:S31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B15" sqref="B15:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,30 +1674,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="165" t="s">
+      <c r="D2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="165" t="s">
+      <c r="E2" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="165" t="s">
+      <c r="F2" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="165" t="s">
+      <c r="G2" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="165" t="s">
+      <c r="H2" s="135" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1715,7 +1724,7 @@
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="139"/>
+      <c r="B4" s="155"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1741,7 +1750,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="140"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="2" t="s">
         <v>82</v>
       </c>
@@ -1767,7 +1776,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="154" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1790,7 +1799,7 @@
       </c>
     </row>
     <row r="7" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="139"/>
+      <c r="B7" s="155"/>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1815,7 +1824,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="140"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="2" t="s">
         <v>82</v>
       </c>
@@ -1841,7 +1850,7 @@
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="154" t="s">
         <v>130</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1868,7 +1877,7 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="139"/>
+      <c r="B10" s="155"/>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1897,7 +1906,7 @@
       <c r="M10" s="36"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="140"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="2" t="s">
         <v>82</v>
       </c>
@@ -1923,8 +1932,8 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="138" t="s">
-        <v>131</v>
+      <c r="B12" s="154" t="s">
+        <v>143</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -1952,7 +1961,7 @@
       <c r="L12" s="35"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="139"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1978,7 +1987,7 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="140"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
@@ -2005,8 +2014,8 @@
       <c r="S14" s="55"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="138" t="s">
-        <v>132</v>
+      <c r="B15" s="154" t="s">
+        <v>131</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
@@ -2032,7 +2041,7 @@
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="139"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
@@ -2058,7 +2067,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="140"/>
+      <c r="B17" s="156"/>
       <c r="C17" s="2" t="s">
         <v>82</v>
       </c>
@@ -2084,7 +2093,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="157" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2111,7 +2120,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="142"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2146,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="141" t="s">
+      <c r="B20" s="157" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2160,7 +2169,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="142"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
@@ -2198,10 +2207,10 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="143" t="s">
+      <c r="B23" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="144"/>
+      <c r="C23" s="160"/>
       <c r="D23" s="6">
         <f>((D3+D9+D12+D15)*0.523)+(D3+D9+D12+D15)+D18</f>
         <v>5375900</v>
@@ -2224,10 +2233,10 @@
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="136" t="s">
+      <c r="B24" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="137"/>
+      <c r="C24" s="153"/>
       <c r="D24" s="6">
         <f t="shared" ref="D24:H25" si="6">((D4+D10+D13+D16)*0.523)+(D4+D10+D13+D16)+D19</f>
         <v>64510800</v>
@@ -2251,10 +2260,10 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="137"/>
+      <c r="C25" s="153"/>
       <c r="D25" s="6">
         <f t="shared" si="6"/>
         <v>31535786.280000001</v>
@@ -2277,10 +2286,10 @@
       </c>
     </row>
     <row r="26" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="136" t="s">
+      <c r="B26" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="137"/>
+      <c r="C26" s="153"/>
       <c r="D26" s="6">
         <f>D24+D22</f>
         <v>64760800</v>
@@ -2326,757 +2335,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="11.42578125" style="40"/>
-    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D3" s="41"/>
-      <c r="F3" s="160" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="N3" s="160" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-    </row>
-    <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="76" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="45"/>
-      <c r="M4" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="P4" s="44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="72">
-        <v>1</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="38">
-        <v>1</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="27"/>
-      <c r="M5" s="38">
-        <v>1</v>
-      </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="70"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="72">
-        <v>2</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="38">
-        <v>2</v>
-      </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="27"/>
-      <c r="M6" s="38">
-        <v>2</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="70"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="72">
-        <v>3</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="38">
-        <v>3</v>
-      </c>
-      <c r="F7" s="31">
-        <v>0</v>
-      </c>
-      <c r="G7" s="32">
-        <v>0</v>
-      </c>
-      <c r="H7" s="32">
-        <v>0</v>
-      </c>
-      <c r="I7" s="33">
-        <v>0</v>
-      </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="27"/>
-      <c r="M7" s="38">
-        <v>3</v>
-      </c>
-      <c r="N7" s="31" t="e">
-        <f>F7*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O7" s="46" t="e">
-        <f>H7*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P7" s="47" t="e">
-        <f>I7*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q7" s="31" t="e">
-        <f>N7+O7+P7</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="72">
-        <v>4</v>
-      </c>
-      <c r="B8" s="29" t="e">
-        <f>'PROYECCIONES DE VTAS EN UND.'!C5*6+'PROYECCIONES DE VTAS EN UND.'!B6*12+'PROYECCIONES DE VTAS EN UND.'!#REF!*24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C8" s="29" t="e">
-        <f>B8/30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="38">
-        <v>4</v>
-      </c>
-      <c r="F8" s="31" t="e">
-        <f>B8*#REF!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G8" s="32" t="e">
-        <f>F8/#REF!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H8" s="32" t="e">
-        <f>B8*(#REF!)/#REF!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I8" s="33" t="e">
-        <f>B8*#REF!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J8" s="68" t="e">
-        <f>I8/#REF!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K8" s="33" t="e">
-        <f>ROUND(J8,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L8" s="69"/>
-      <c r="M8" s="38">
-        <v>4</v>
-      </c>
-      <c r="N8" s="31" t="e">
-        <f>G8*#REF!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O8" s="31" t="e">
-        <f>H8*#REF!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P8" s="47" t="e">
-        <f>K8*#REF!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q8" s="31" t="e">
-        <f t="shared" ref="Q8:Q16" si="0">N8+O8+P8</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="73">
-        <v>5</v>
-      </c>
-      <c r="B9" s="30" t="e">
-        <f>'PROYECCIONES DE VTAS EN UND.'!F5*6+'PROYECCIONES DE VTAS EN UND.'!F6*12+'PROYECCIONES DE VTAS EN UND.'!#REF!*24</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C9" s="29" t="e">
-        <f t="shared" ref="C9:C16" si="1">B9/30</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="39">
-        <v>5</v>
-      </c>
-      <c r="F9" s="31" t="e">
-        <f>B9*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="32" t="e">
-        <f>F9/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="32" t="e">
-        <f>B9*(#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I9" s="33" t="e">
-        <f>B9*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J9" s="68" t="e">
-        <f>I9/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K9" s="33" t="e">
-        <f t="shared" ref="K9:K16" si="2">ROUND(J9,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L9" s="69"/>
-      <c r="M9" s="39">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31" t="e">
-        <f>G9*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O9" s="31" t="e">
-        <f>H9*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P9" s="47" t="e">
-        <f>K9*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q9" s="31" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="72">
-        <v>6</v>
-      </c>
-      <c r="B10" s="29" t="e">
-        <f>'PROYECCIONES DE VTAS EN UND.'!G5*6+'PROYECCIONES DE VTAS EN UND.'!G6*12+'PROYECCIONES DE VTAS EN UND.'!#REF!*24</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C10" s="29" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="38">
-        <v>6</v>
-      </c>
-      <c r="F10" s="31" t="e">
-        <f>B10*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="32" t="e">
-        <f>F10/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="32" t="e">
-        <f>B10*(#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I10" s="33" t="e">
-        <f>B10*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J10" s="68" t="e">
-        <f>I10/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K10" s="33" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L10" s="69"/>
-      <c r="M10" s="38">
-        <v>6</v>
-      </c>
-      <c r="N10" s="31" t="e">
-        <f>G10*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O10" s="31" t="e">
-        <f>H10*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P10" s="47" t="e">
-        <f>K10*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q10" s="31" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="72">
-        <v>7</v>
-      </c>
-      <c r="B11" s="29" t="e">
-        <f>'PROYECCIONES DE VTAS EN UND.'!H5*6+'PROYECCIONES DE VTAS EN UND.'!H6*12+'PROYECCIONES DE VTAS EN UND.'!#REF!*24</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C11" s="29" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="38">
-        <v>7</v>
-      </c>
-      <c r="F11" s="31" t="e">
-        <f>B11*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" s="32" t="e">
-        <f>F11/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="32" t="e">
-        <f>B11*(#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I11" s="33" t="e">
-        <f>B11*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J11" s="68" t="e">
-        <f>I11/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K11" s="33" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L11" s="69"/>
-      <c r="M11" s="38">
-        <v>7</v>
-      </c>
-      <c r="N11" s="31" t="e">
-        <f>G11*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O11" s="31" t="e">
-        <f>H11*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P11" s="47" t="e">
-        <f>K11*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q11" s="31" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="72">
-        <v>8</v>
-      </c>
-      <c r="B12" s="29" t="e">
-        <f>'PROYECCIONES DE VTAS EN UND.'!I5*6+'PROYECCIONES DE VTAS EN UND.'!I6*12+'PROYECCIONES DE VTAS EN UND.'!#REF!*24</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C12" s="29" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="38">
-        <v>8</v>
-      </c>
-      <c r="F12" s="31" t="e">
-        <f>B12*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="32" t="e">
-        <f>F12/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="32" t="e">
-        <f>B12*(#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I12" s="33" t="e">
-        <f>B12*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J12" s="68" t="e">
-        <f>I12/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K12" s="33" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L12" s="69"/>
-      <c r="M12" s="38">
-        <v>8</v>
-      </c>
-      <c r="N12" s="31" t="e">
-        <f>G12*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O12" s="31" t="e">
-        <f>H12*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P12" s="47" t="e">
-        <f>K12*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q12" s="31" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="72">
-        <v>9</v>
-      </c>
-      <c r="B13" s="29" t="e">
-        <f>'PROYECCIONES DE VTAS EN UND.'!J5*6+'PROYECCIONES DE VTAS EN UND.'!J6*12+'PROYECCIONES DE VTAS EN UND.'!#REF!*24</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C13" s="29" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="38">
-        <v>9</v>
-      </c>
-      <c r="F13" s="31" t="e">
-        <f>B13*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="32" t="e">
-        <f>F13/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="32" t="e">
-        <f>B13*(#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I13" s="33" t="e">
-        <f>B13*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J13" s="68" t="e">
-        <f>I13/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K13" s="33" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L13" s="69"/>
-      <c r="M13" s="38">
-        <v>9</v>
-      </c>
-      <c r="N13" s="31" t="e">
-        <f>G13*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O13" s="31" t="e">
-        <f>H13*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P13" s="47" t="e">
-        <f>K13*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q13" s="31" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="72">
-        <v>10</v>
-      </c>
-      <c r="B14" s="29" t="e">
-        <f>'PROYECCIONES DE VTAS EN UND.'!K5*6+'PROYECCIONES DE VTAS EN UND.'!K6*12+'PROYECCIONES DE VTAS EN UND.'!#REF!*24</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C14" s="29" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="38">
-        <v>10</v>
-      </c>
-      <c r="F14" s="31" t="e">
-        <f>B14*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G14" s="32" t="e">
-        <f>F14/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" s="32" t="e">
-        <f>B14*(#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I14" s="33" t="e">
-        <f>B14*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J14" s="68" t="e">
-        <f>I14/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K14" s="33" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L14" s="69"/>
-      <c r="M14" s="38">
-        <v>10</v>
-      </c>
-      <c r="N14" s="31" t="e">
-        <f>G14*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O14" s="31" t="e">
-        <f>H14*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P14" s="47" t="e">
-        <f>K14*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q14" s="31" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="72">
-        <v>11</v>
-      </c>
-      <c r="B15" s="29" t="e">
-        <f>'PROYECCIONES DE VTAS EN UND.'!L5*6+'PROYECCIONES DE VTAS EN UND.'!L6*12+'PROYECCIONES DE VTAS EN UND.'!#REF!*24</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C15" s="29" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="38">
-        <v>11</v>
-      </c>
-      <c r="F15" s="31" t="e">
-        <f>B15*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G15" s="32" t="e">
-        <f>F15/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="32" t="e">
-        <f>B15*(#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I15" s="33" t="e">
-        <f>B15*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J15" s="68" t="e">
-        <f>I15/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K15" s="33" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L15" s="69"/>
-      <c r="M15" s="38">
-        <v>11</v>
-      </c>
-      <c r="N15" s="31" t="e">
-        <f>G15*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O15" s="31" t="e">
-        <f>H15*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P15" s="47" t="e">
-        <f>K15*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q15" s="31" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="72">
-        <v>12</v>
-      </c>
-      <c r="B16" s="29" t="e">
-        <f>'PROYECCIONES DE VTAS EN UND.'!M5*6+'PROYECCIONES DE VTAS EN UND.'!M6*12+'PROYECCIONES DE VTAS EN UND.'!#REF!*24</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C16" s="29" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="38">
-        <v>12</v>
-      </c>
-      <c r="F16" s="31" t="e">
-        <f>B16*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G16" s="32" t="e">
-        <f>F16/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="32" t="e">
-        <f>B16*(#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I16" s="33" t="e">
-        <f>B16*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J16" s="68" t="e">
-        <f>I16/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K16" s="33" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L16" s="69"/>
-      <c r="M16" s="38">
-        <v>12</v>
-      </c>
-      <c r="N16" s="31" t="e">
-        <f>G16*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O16" s="31" t="e">
-        <f>H16*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P16" s="47" t="e">
-        <f>K16*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q16" s="31" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E17" s="77"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="77"/>
-      <c r="M17" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="49">
-        <f>350000*12</f>
-        <v>4200000</v>
-      </c>
-    </row>
-    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-    </row>
-    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="O21" s="36" t="e">
-        <f>Q8+Q9+Q10+Q11+Q12</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="F3:K3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3105,38 +2363,38 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="182" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="182" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="161"/>
-      <c r="B3" s="162" t="s">
+      <c r="A3" s="182"/>
+      <c r="B3" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="161"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
+      <c r="A4" s="182"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="161"/>
-      <c r="B5" s="164"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
     </row>
     <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -3186,12 +2444,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3202,6 +2460,23 @@
     <col min="5" max="7" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
@@ -3237,24 +2512,24 @@
         <v>88</v>
       </c>
       <c r="C4" s="35">
-        <f>'Proyeccion de ventas'!Q17</f>
-        <v>4200000</v>
+        <f>'PROYECCIONES DE VTAS EN UND.'!D30</f>
+        <v>13800000</v>
       </c>
       <c r="D4" s="35">
-        <f>'Proyeccion de ventas'!Q17</f>
-        <v>4200000</v>
+        <f>'PROYECCIONES DE VTAS EN UND.'!G30</f>
+        <v>9747524.5440000016</v>
       </c>
       <c r="E4" s="35">
-        <f>'Proyeccion de ventas'!Q17</f>
-        <v>4200000</v>
+        <f>'PROYECCIONES DE VTAS EN UND.'!J30</f>
+        <v>11033026.394456834</v>
       </c>
       <c r="F4" s="35">
-        <f>'Proyeccion de ventas'!Q17</f>
-        <v>4200000</v>
+        <f>'PROYECCIONES DE VTAS EN UND.'!M30</f>
+        <v>9309613.3690536991</v>
       </c>
       <c r="G4" s="35">
-        <f>'Proyeccion de ventas'!Q17</f>
-        <v>4200000</v>
+        <f>'PROYECCIONES DE VTAS EN UND.'!P30</f>
+        <v>12027317.026755104</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3263,23 +2538,23 @@
       </c>
       <c r="C5" s="3">
         <f>'Gastos anuales de Admin'!D10</f>
-        <v>13862000</v>
+        <v>10062000</v>
       </c>
       <c r="D5" s="3">
         <f>'Gastos anuales de Admin'!E10</f>
-        <v>14416480</v>
+        <v>10464480</v>
       </c>
       <c r="E5" s="3">
         <f>'Gastos anuales de Admin'!F10</f>
-        <v>14993139.199999999</v>
+        <v>10883059.199999999</v>
       </c>
       <c r="F5" s="3">
         <f>'Gastos anuales de Admin'!G10</f>
-        <v>15592864.768000001</v>
+        <v>11318381.568</v>
       </c>
       <c r="G5" s="3">
         <f>'Gastos anuales de Admin'!H10</f>
-        <v>16216579.358720001</v>
+        <v>11771116.83072</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3314,23 +2589,23 @@
       <c r="B7" s="51"/>
       <c r="C7" s="52">
         <f>SUM(C3:C6)</f>
-        <v>86475336</v>
+        <v>92275336</v>
       </c>
       <c r="D7" s="52">
         <f t="shared" ref="D7:G7" si="0">SUM(D3:D6)</f>
-        <v>89506349.439999998</v>
+        <v>91101873.983999997</v>
       </c>
       <c r="E7" s="52">
         <f t="shared" si="0"/>
-        <v>92380468.480000004</v>
+        <v>95103414.874456838</v>
       </c>
       <c r="F7" s="52">
         <f t="shared" si="0"/>
-        <v>97407687.2192</v>
+        <v>98242817.388253689</v>
       </c>
       <c r="G7" s="52">
         <f t="shared" si="0"/>
-        <v>99575994.707968011</v>
+        <v>102957849.20672312</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3338,51 +2613,51 @@
         <v>92</v>
       </c>
       <c r="B8" s="50"/>
-      <c r="C8" s="133">
+      <c r="C8" s="132">
         <f>'PROYECCIONES DE VTAS EN UND.'!D19</f>
-        <v>35050000</v>
-      </c>
-      <c r="D8" s="133">
+        <v>45500000</v>
+      </c>
+      <c r="D8" s="132">
         <f>'PROYECCIONES DE VTAS EN UND.'!G19</f>
-        <v>95326107.197439998</v>
-      </c>
-      <c r="E8" s="133">
+        <v>4890642.1222400032</v>
+      </c>
+      <c r="E8" s="132">
         <f>'PROYECCIONES DE VTAS EN UND.'!J19</f>
-        <v>139279856.03031895</v>
-      </c>
-      <c r="F8" s="133">
+        <v>6590628.2336550634</v>
+      </c>
+      <c r="F8" s="132">
         <f>'PROYECCIONES DE VTAS EN UND.'!M19</f>
-        <v>168717988.36587328</v>
-      </c>
-      <c r="G8" s="133">
+        <v>3970448.6590772779</v>
+      </c>
+      <c r="G8" s="132">
         <f>'PROYECCIONES DE VTAS EN UND.'!P19</f>
-        <v>216001163.05289119</v>
+        <v>7892388.0927023124</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="134" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="135">
+      <c r="A10" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="133"/>
+      <c r="C10" s="134">
         <f>C8-C7</f>
-        <v>-51425336</v>
-      </c>
-      <c r="D10" s="135">
+        <v>-46775336</v>
+      </c>
+      <c r="D10" s="134">
         <f t="shared" ref="D10:G10" si="1">D8-D7</f>
-        <v>5819757.7574400008</v>
-      </c>
-      <c r="E10" s="135">
+        <v>-86211231.86175999</v>
+      </c>
+      <c r="E10" s="134">
         <f t="shared" si="1"/>
-        <v>46899387.550318941</v>
-      </c>
-      <c r="F10" s="135">
+        <v>-88512786.640801772</v>
+      </c>
+      <c r="F10" s="134">
         <f t="shared" si="1"/>
-        <v>71310301.146673277</v>
-      </c>
-      <c r="G10" s="135">
+        <v>-94272368.729176417</v>
+      </c>
+      <c r="G10" s="134">
         <f t="shared" si="1"/>
-        <v>116425168.34492318</v>
+        <v>-95065461.11402081</v>
       </c>
     </row>
   </sheetData>
@@ -3406,10 +2681,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="135" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3468,7 +2743,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3480,10 +2755,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="162"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3513,27 +2788,27 @@
         <v>19</v>
       </c>
       <c r="B3" s="28">
-        <v>166666.66666666666</v>
+        <v>80000</v>
       </c>
       <c r="D3" s="31">
         <f t="shared" ref="D3:D9" si="0">B3*12</f>
-        <v>2000000</v>
+        <v>960000</v>
       </c>
       <c r="E3" s="31">
         <f>B3*12*1.04</f>
-        <v>2080000</v>
+        <v>998400</v>
       </c>
       <c r="F3" s="31">
         <f>E3*1.04</f>
-        <v>2163200</v>
+        <v>1038336</v>
       </c>
       <c r="G3" s="31">
         <f t="shared" ref="G3:H3" si="1">F3*1.04</f>
-        <v>2249728</v>
+        <v>1079869.4399999999</v>
       </c>
       <c r="H3" s="31">
         <f t="shared" si="1"/>
-        <v>2339717.1200000001</v>
+        <v>1123064.2176000001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3597,34 +2872,34 @@
         <v>95</v>
       </c>
       <c r="B6" s="28">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="D6" s="31">
         <f t="shared" si="0"/>
-        <v>720000</v>
+        <v>960000</v>
       </c>
       <c r="E6" s="31">
         <f t="shared" si="2"/>
-        <v>748800</v>
+        <v>998400</v>
       </c>
       <c r="F6" s="31">
         <f t="shared" si="3"/>
-        <v>778752</v>
+        <v>1038336</v>
       </c>
       <c r="G6" s="31">
         <f t="shared" si="4"/>
-        <v>809902.08000000007</v>
+        <v>1079869.4399999999</v>
       </c>
       <c r="H6" s="31">
         <f t="shared" si="4"/>
-        <v>842298.16320000007</v>
+        <v>1123064.2176000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="85">
+      <c r="B7" s="84">
         <v>20000</v>
       </c>
       <c r="D7" s="31">
@@ -3652,7 +2927,7 @@
       <c r="A8" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="85">
+      <c r="B8" s="84">
         <v>20833.333333333332</v>
       </c>
       <c r="D8" s="31">
@@ -3677,65 +2952,65 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="85" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="28">
-        <v>850000</v>
+        <v>600000</v>
       </c>
       <c r="D9" s="31">
         <f t="shared" si="0"/>
-        <v>10200000</v>
+        <v>7200000</v>
       </c>
       <c r="E9" s="31">
         <f t="shared" si="2"/>
-        <v>10608000</v>
+        <v>7488000</v>
       </c>
       <c r="F9" s="31">
         <f t="shared" si="3"/>
-        <v>11032320</v>
+        <v>7787520</v>
       </c>
       <c r="G9" s="31">
         <f t="shared" si="4"/>
-        <v>11473612.800000001</v>
+        <v>8099020.7999999998</v>
       </c>
       <c r="H9" s="31">
         <f t="shared" si="4"/>
-        <v>11932557.312000001</v>
+        <v>8422981.6319999993</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="86" t="s">
         <v>128</v>
       </c>
       <c r="B10" s="56">
         <f>SUM(B3:B9)</f>
-        <v>1155166.6666666665</v>
+        <v>838500</v>
       </c>
       <c r="D10" s="54">
         <f>SUM(D3:D9)</f>
-        <v>13862000</v>
+        <v>10062000</v>
       </c>
       <c r="E10" s="54">
         <f t="shared" ref="E10:H10" si="5">SUM(E3:E9)</f>
-        <v>14416480</v>
+        <v>10464480</v>
       </c>
       <c r="F10" s="54">
         <f t="shared" si="5"/>
-        <v>14993139.199999999</v>
+        <v>10883059.199999999</v>
       </c>
       <c r="G10" s="54">
         <f t="shared" si="5"/>
-        <v>15592864.768000001</v>
+        <v>11318381.568</v>
       </c>
       <c r="H10" s="54">
         <f t="shared" si="5"/>
-        <v>16216579.358720001</v>
+        <v>11771116.83072</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="82"/>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
       <c r="F11" s="53"/>
@@ -3774,22 +3049,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="C1" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="165" t="s">
+      <c r="D1" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="165" t="s">
+      <c r="E1" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="165" t="s">
+      <c r="F1" s="135" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4028,53 +3303,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="171" t="s">
+      <c r="D2" s="138" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="108">
+      <c r="A3" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="107">
         <v>1</v>
       </c>
-      <c r="C3" s="109">
+      <c r="C3" s="108">
         <v>2500000</v>
       </c>
-      <c r="D3" s="109">
+      <c r="D3" s="108">
         <f>C3*B3</f>
         <v>2500000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="108">
+      <c r="A4" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="107">
         <v>1</v>
       </c>
-      <c r="C4" s="110">
+      <c r="C4" s="109">
         <v>2500000</v>
       </c>
-      <c r="D4" s="109">
+      <c r="D4" s="108">
         <f t="shared" ref="D4:D11" si="0">C4*B4</f>
         <v>2500000</v>
       </c>
@@ -4112,7 +3387,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="25">
         <v>1</v>
@@ -4127,7 +3402,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="25">
         <v>1</v>
@@ -4192,11 +3467,11 @@
       <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="145" t="s">
+      <c r="A13" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="145"/>
-      <c r="C13" s="145"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="164"/>
       <c r="D13" s="34">
         <f>SUM(D3:D12)</f>
         <v>7340000</v>
@@ -4223,22 +3498,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="173" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="140" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="146"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="19">
         <f>'Gastos anuales de Admin'!B3+'Gastos anuales de Admin'!B4+'Gastos anuales de Admin'!B5+'Gastos anuales de Admin'!B6</f>
-        <v>264333.33333333331</v>
+        <v>197666.66666666669</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4248,23 +3523,23 @@
       <c r="B3" s="21"/>
       <c r="C3" s="19">
         <f>'Gastos anuales de Admin'!B9</f>
-        <v>850000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="146"/>
+      <c r="B4" s="165"/>
       <c r="C4" s="19">
         <v>55000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="146"/>
+      <c r="B5" s="165"/>
       <c r="C5" s="19"/>
     </row>
   </sheetData>
@@ -4315,15 +3590,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BN46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.7109375" style="58" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="58" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="58" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" style="58" customWidth="1"/>
     <col min="6" max="6" width="9" style="58" customWidth="1"/>
@@ -8233,1242 +7508,1241 @@
       <c r="BM3" s="57"/>
       <c r="BN3" s="57"/>
     </row>
-    <row r="4" spans="1:66" s="106" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" s="105" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="174"/>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="105" t="s">
+      <c r="G4" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="105" t="s">
+      <c r="H4" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="105" t="s">
+      <c r="I4" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="105" t="s">
+      <c r="J4" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="L4" s="105" t="s">
+      <c r="L4" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="M4" s="105" t="s">
+      <c r="M4" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="N4" s="184" t="s">
+      <c r="N4" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="T4" s="105" t="s">
+      <c r="T4" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="U4" s="105" t="s">
+      <c r="U4" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="V4" s="105" t="s">
+      <c r="V4" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="X4" s="105" t="s">
+      <c r="X4" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="Y4" s="105" t="s">
+      <c r="Y4" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="Z4" s="105" t="s">
+      <c r="Z4" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="AA4" s="184" t="s">
+      <c r="AA4" s="149" t="s">
         <v>112</v>
       </c>
-      <c r="AB4" s="105" t="s">
+      <c r="AB4" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="AC4" s="105" t="s">
+      <c r="AC4" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="AD4" s="105" t="s">
+      <c r="AD4" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="AE4" s="105" t="s">
+      <c r="AE4" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="AF4" s="105" t="s">
+      <c r="AF4" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="AG4" s="105" t="s">
+      <c r="AG4" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="AH4" s="105" t="s">
+      <c r="AH4" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="AI4" s="105" t="s">
+      <c r="AI4" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="AJ4" s="105" t="s">
+      <c r="AJ4" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="AK4" s="105" t="s">
+      <c r="AK4" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="AL4" s="105" t="s">
+      <c r="AL4" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="AM4" s="105" t="s">
+      <c r="AM4" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="AN4" s="184" t="s">
+      <c r="AN4" s="149" t="s">
         <v>113</v>
       </c>
-      <c r="AO4" s="101" t="s">
+      <c r="AO4" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="AP4" s="101" t="s">
+      <c r="AP4" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="AQ4" s="101" t="s">
+      <c r="AQ4" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="AR4" s="101" t="s">
+      <c r="AR4" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="AS4" s="101" t="s">
+      <c r="AS4" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="AT4" s="101" t="s">
+      <c r="AT4" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="AU4" s="101" t="s">
+      <c r="AU4" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="AV4" s="101" t="s">
+      <c r="AV4" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="AW4" s="101" t="s">
+      <c r="AW4" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="AX4" s="101" t="s">
+      <c r="AX4" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="AY4" s="101" t="s">
+      <c r="AY4" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="AZ4" s="101" t="s">
+      <c r="AZ4" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="BA4" s="184" t="s">
+      <c r="BA4" s="149" t="s">
         <v>114</v>
       </c>
-      <c r="BB4" s="101" t="s">
+      <c r="BB4" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="BC4" s="101" t="s">
+      <c r="BC4" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="BD4" s="101" t="s">
+      <c r="BD4" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="BE4" s="101" t="s">
+      <c r="BE4" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="BF4" s="101" t="s">
+      <c r="BF4" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="BG4" s="101" t="s">
+      <c r="BG4" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="BH4" s="101" t="s">
+      <c r="BH4" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="BI4" s="101" t="s">
+      <c r="BI4" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="BJ4" s="101" t="s">
+      <c r="BJ4" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="BK4" s="101" t="s">
+      <c r="BK4" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="BL4" s="101" t="s">
+      <c r="BL4" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="BM4" s="101" t="s">
+      <c r="BM4" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="BN4" s="184" t="s">
+      <c r="BN4" s="149" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="115" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="102">
+      <c r="A5" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="120"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="101">
         <v>15</v>
       </c>
-      <c r="G5" s="102">
+      <c r="G5" s="101">
         <v>30</v>
       </c>
-      <c r="H5" s="102">
+      <c r="H5" s="101">
         <v>45</v>
       </c>
-      <c r="I5" s="103">
-        <v>60</v>
-      </c>
-      <c r="J5" s="103">
-        <v>75</v>
-      </c>
-      <c r="K5" s="103">
-        <v>90</v>
-      </c>
-      <c r="L5" s="103">
+      <c r="I5" s="102">
+        <v>65</v>
+      </c>
+      <c r="J5" s="102">
+        <v>85</v>
+      </c>
+      <c r="K5" s="102">
         <v>100</v>
       </c>
-      <c r="M5" s="103">
-        <v>110</v>
-      </c>
-      <c r="N5" s="185">
+      <c r="L5" s="102">
+        <v>115</v>
+      </c>
+      <c r="M5" s="102">
+        <v>130</v>
+      </c>
+      <c r="N5" s="150">
         <f>SUM(C5:M5)</f>
-        <v>525</v>
-      </c>
-      <c r="O5" s="104">
+        <v>585</v>
+      </c>
+      <c r="O5" s="103">
         <f>M5+20*1.01</f>
-        <v>130.19999999999999</v>
-      </c>
-      <c r="P5" s="104">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="P5" s="103">
         <f>O5</f>
-        <v>130.19999999999999</v>
-      </c>
-      <c r="Q5" s="104">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="Q5" s="103">
         <f t="shared" ref="Q5" si="0">P5</f>
-        <v>130.19999999999999</v>
-      </c>
-      <c r="R5" s="104">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="R5" s="103">
         <f>Q5*1.08</f>
-        <v>140.61599999999999</v>
-      </c>
-      <c r="S5" s="104">
+        <v>162.21600000000001</v>
+      </c>
+      <c r="S5" s="103">
         <f t="shared" ref="S5" si="1">R5</f>
-        <v>140.61599999999999</v>
-      </c>
-      <c r="T5" s="104">
+        <v>162.21600000000001</v>
+      </c>
+      <c r="T5" s="103">
         <f t="shared" ref="T5" si="2">S5</f>
-        <v>140.61599999999999</v>
-      </c>
-      <c r="U5" s="104">
+        <v>162.21600000000001</v>
+      </c>
+      <c r="U5" s="103">
         <f>T5*1.08</f>
-        <v>151.86527999999998</v>
-      </c>
-      <c r="V5" s="104">
+        <v>175.19328000000002</v>
+      </c>
+      <c r="V5" s="103">
         <f t="shared" ref="V5" si="3">U5</f>
-        <v>151.86527999999998</v>
-      </c>
-      <c r="W5" s="104">
+        <v>175.19328000000002</v>
+      </c>
+      <c r="W5" s="103">
         <f t="shared" ref="W5" si="4">V5</f>
-        <v>151.86527999999998</v>
-      </c>
-      <c r="X5" s="104">
+        <v>175.19328000000002</v>
+      </c>
+      <c r="X5" s="103">
         <f>W5*1.08</f>
-        <v>164.0145024</v>
-      </c>
-      <c r="Y5" s="104">
+        <v>189.20874240000003</v>
+      </c>
+      <c r="Y5" s="103">
         <f t="shared" ref="Y5" si="5">X5</f>
-        <v>164.0145024</v>
-      </c>
-      <c r="Z5" s="104">
+        <v>189.20874240000003</v>
+      </c>
+      <c r="Z5" s="103">
         <f t="shared" ref="Z5" si="6">Y5</f>
-        <v>164.0145024</v>
-      </c>
-      <c r="AA5" s="186">
+        <v>189.20874240000003</v>
+      </c>
+      <c r="AA5" s="151">
         <f>SUM(O5:Z5)</f>
-        <v>1760.0873472000001</v>
-      </c>
-      <c r="AB5" s="104">
+        <v>2030.4540672000003</v>
+      </c>
+      <c r="AB5" s="103">
         <f>Z5*1.15</f>
-        <v>188.61667775999999</v>
-      </c>
-      <c r="AC5" s="104">
+        <v>217.59005376000002</v>
+      </c>
+      <c r="AC5" s="103">
         <f t="shared" ref="AC5" si="7">AB5</f>
-        <v>188.61667775999999</v>
-      </c>
-      <c r="AD5" s="104">
+        <v>217.59005376000002</v>
+      </c>
+      <c r="AD5" s="103">
         <f t="shared" ref="AD5" si="8">AC5</f>
-        <v>188.61667775999999</v>
-      </c>
-      <c r="AE5" s="104">
+        <v>217.59005376000002</v>
+      </c>
+      <c r="AE5" s="103">
         <f>AD5*1.08</f>
-        <v>203.70601198080001</v>
-      </c>
-      <c r="AF5" s="104">
+        <v>234.99725806080002</v>
+      </c>
+      <c r="AF5" s="103">
         <f t="shared" ref="AF5" si="9">AE5</f>
-        <v>203.70601198080001</v>
-      </c>
-      <c r="AG5" s="104">
+        <v>234.99725806080002</v>
+      </c>
+      <c r="AG5" s="103">
         <f t="shared" ref="AG5" si="10">AF5</f>
-        <v>203.70601198080001</v>
-      </c>
-      <c r="AH5" s="104">
+        <v>234.99725806080002</v>
+      </c>
+      <c r="AH5" s="103">
         <f>AG5*1.05</f>
-        <v>213.89131257984002</v>
-      </c>
-      <c r="AI5" s="104">
+        <v>246.74712096384005</v>
+      </c>
+      <c r="AI5" s="103">
         <f t="shared" ref="AI5" si="11">AH5</f>
-        <v>213.89131257984002</v>
-      </c>
-      <c r="AJ5" s="104">
+        <v>246.74712096384005</v>
+      </c>
+      <c r="AJ5" s="103">
         <f t="shared" ref="AJ5" si="12">AI5</f>
-        <v>213.89131257984002</v>
-      </c>
-      <c r="AK5" s="104">
+        <v>246.74712096384005</v>
+      </c>
+      <c r="AK5" s="103">
         <f>AJ5*1.08</f>
-        <v>231.00261758622725</v>
-      </c>
-      <c r="AL5" s="104">
+        <v>266.48689064094725</v>
+      </c>
+      <c r="AL5" s="103">
         <f t="shared" ref="AL5" si="13">AK5</f>
-        <v>231.00261758622725</v>
-      </c>
-      <c r="AM5" s="104">
+        <v>266.48689064094725</v>
+      </c>
+      <c r="AM5" s="103">
         <f t="shared" ref="AM5" si="14">AL5</f>
-        <v>231.00261758622725</v>
-      </c>
-      <c r="AN5" s="186">
+        <v>266.48689064094725</v>
+      </c>
+      <c r="AN5" s="151">
         <f>SUM(AB5:AM5)</f>
-        <v>2511.6498597206014</v>
-      </c>
-      <c r="AO5" s="104">
+        <v>2897.4639702767622</v>
+      </c>
+      <c r="AO5" s="103">
         <f>AM5*1.01</f>
-        <v>233.31264376208952</v>
-      </c>
-      <c r="AP5" s="104">
+        <v>269.15175954735673</v>
+      </c>
+      <c r="AP5" s="103">
         <f t="shared" ref="AP5" si="15">AO5</f>
-        <v>233.31264376208952</v>
-      </c>
-      <c r="AQ5" s="104">
+        <v>269.15175954735673</v>
+      </c>
+      <c r="AQ5" s="103">
         <f t="shared" ref="AQ5" si="16">AP5</f>
-        <v>233.31264376208952</v>
-      </c>
-      <c r="AR5" s="104">
+        <v>269.15175954735673</v>
+      </c>
+      <c r="AR5" s="103">
         <f>AQ5*1.05</f>
-        <v>244.97827595019402</v>
-      </c>
-      <c r="AS5" s="104">
+        <v>282.60934752472457</v>
+      </c>
+      <c r="AS5" s="103">
         <f t="shared" ref="AS5" si="17">AR5</f>
-        <v>244.97827595019402</v>
-      </c>
-      <c r="AT5" s="104">
+        <v>282.60934752472457</v>
+      </c>
+      <c r="AT5" s="103">
         <f t="shared" ref="AT5" si="18">AS5</f>
-        <v>244.97827595019402</v>
-      </c>
-      <c r="AU5" s="104">
+        <v>282.60934752472457</v>
+      </c>
+      <c r="AU5" s="103">
         <f>AT5*1.05</f>
-        <v>257.22718974770373</v>
-      </c>
-      <c r="AV5" s="104">
+        <v>296.73981490096082</v>
+      </c>
+      <c r="AV5" s="103">
         <f t="shared" ref="AV5" si="19">AU5</f>
-        <v>257.22718974770373</v>
-      </c>
-      <c r="AW5" s="104">
+        <v>296.73981490096082</v>
+      </c>
+      <c r="AW5" s="103">
         <f t="shared" ref="AW5" si="20">AV5</f>
-        <v>257.22718974770373</v>
-      </c>
-      <c r="AX5" s="104">
+        <v>296.73981490096082</v>
+      </c>
+      <c r="AX5" s="103">
         <f>AW5*1.05</f>
-        <v>270.08854923508892</v>
-      </c>
-      <c r="AY5" s="104">
+        <v>311.57680564600889</v>
+      </c>
+      <c r="AY5" s="103">
         <f t="shared" ref="AY5" si="21">AX5</f>
-        <v>270.08854923508892</v>
-      </c>
-      <c r="AZ5" s="104">
+        <v>311.57680564600889</v>
+      </c>
+      <c r="AZ5" s="103">
         <f t="shared" ref="AZ5" si="22">AY5</f>
-        <v>270.08854923508892</v>
-      </c>
-      <c r="BA5" s="186">
+        <v>311.57680564600889</v>
+      </c>
+      <c r="BA5" s="151">
         <f>SUM(AO5:AZ5)</f>
-        <v>3016.819976085229</v>
-      </c>
-      <c r="BB5" s="104">
+        <v>3480.2331828571532</v>
+      </c>
+      <c r="BB5" s="103">
         <f>AZ5*1.015</f>
-        <v>274.13987747361523</v>
-      </c>
-      <c r="BC5" s="104">
+        <v>316.250457730699</v>
+      </c>
+      <c r="BC5" s="103">
         <f t="shared" ref="BC5" si="23">BB5</f>
-        <v>274.13987747361523</v>
-      </c>
-      <c r="BD5" s="104">
+        <v>316.250457730699</v>
+      </c>
+      <c r="BD5" s="103">
         <f t="shared" ref="BD5" si="24">BC5</f>
-        <v>274.13987747361523</v>
-      </c>
-      <c r="BE5" s="104">
+        <v>316.250457730699</v>
+      </c>
+      <c r="BE5" s="103">
         <f>BD5*1.08</f>
-        <v>296.07106767150447</v>
-      </c>
-      <c r="BF5" s="104">
+        <v>341.55049434915492</v>
+      </c>
+      <c r="BF5" s="103">
         <f t="shared" ref="BF5" si="25">BE5</f>
-        <v>296.07106767150447</v>
-      </c>
-      <c r="BG5" s="104">
+        <v>341.55049434915492</v>
+      </c>
+      <c r="BG5" s="103">
         <f t="shared" ref="BG5" si="26">BF5</f>
-        <v>296.07106767150447</v>
-      </c>
-      <c r="BH5" s="104">
+        <v>341.55049434915492</v>
+      </c>
+      <c r="BH5" s="103">
         <f>BG5*1.08</f>
-        <v>319.75675308522483</v>
-      </c>
-      <c r="BI5" s="104">
+        <v>368.87453389708736</v>
+      </c>
+      <c r="BI5" s="103">
         <f t="shared" ref="BI5" si="27">BH5</f>
-        <v>319.75675308522483</v>
-      </c>
-      <c r="BJ5" s="104">
+        <v>368.87453389708736</v>
+      </c>
+      <c r="BJ5" s="103">
         <f t="shared" ref="BJ5" si="28">BI5</f>
-        <v>319.75675308522483</v>
-      </c>
-      <c r="BK5" s="104">
+        <v>368.87453389708736</v>
+      </c>
+      <c r="BK5" s="103">
         <f>BJ5*1.08</f>
-        <v>345.33729333204286</v>
-      </c>
-      <c r="BL5" s="104">
+        <v>398.38449660885436</v>
+      </c>
+      <c r="BL5" s="103">
         <f t="shared" ref="BL5" si="29">BK5</f>
-        <v>345.33729333204286</v>
-      </c>
-      <c r="BM5" s="104">
+        <v>398.38449660885436</v>
+      </c>
+      <c r="BM5" s="103">
         <f t="shared" ref="BM5" si="30">BL5</f>
-        <v>345.33729333204286</v>
-      </c>
-      <c r="BN5" s="186">
+        <v>398.38449660885436</v>
+      </c>
+      <c r="BN5" s="151">
         <f>SUM(BB5:BM5)</f>
-        <v>3705.9149746871622</v>
+        <v>4275.1799477573877</v>
       </c>
     </row>
     <row r="6" spans="1:66" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="115" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="154" t="s">
+      <c r="A6" s="114" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="175" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="102">
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="101">
         <v>15</v>
       </c>
-      <c r="G6" s="102">
+      <c r="G6" s="101">
         <f>G5-F5</f>
         <v>15</v>
       </c>
-      <c r="H6" s="102">
+      <c r="H6" s="101">
         <f t="shared" ref="H6:M6" si="31">H5-G5</f>
         <v>15</v>
       </c>
-      <c r="I6" s="102">
+      <c r="I6" s="101">
+        <f t="shared" si="31"/>
+        <v>20</v>
+      </c>
+      <c r="J6" s="101">
+        <f t="shared" si="31"/>
+        <v>20</v>
+      </c>
+      <c r="K6" s="101">
         <f t="shared" si="31"/>
         <v>15</v>
       </c>
-      <c r="J6" s="102">
+      <c r="L6" s="101">
         <f t="shared" si="31"/>
         <v>15</v>
       </c>
-      <c r="K6" s="102">
+      <c r="M6" s="101">
         <f t="shared" si="31"/>
         <v>15</v>
       </c>
-      <c r="L6" s="102">
-        <f t="shared" si="31"/>
-        <v>10</v>
-      </c>
-      <c r="M6" s="102">
-        <f t="shared" si="31"/>
-        <v>10</v>
-      </c>
-      <c r="N6" s="186">
+      <c r="N6" s="151">
         <f>SUM(B6:M6)</f>
-        <v>110</v>
-      </c>
-      <c r="O6" s="104">
+        <v>130</v>
+      </c>
+      <c r="O6" s="103">
         <f>O5-M5</f>
         <v>20.199999999999989</v>
       </c>
-      <c r="P6" s="104">
+      <c r="P6" s="103">
         <f>P5-O5</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="104">
+      <c r="Q6" s="103">
         <f t="shared" ref="Q6:Z6" si="32">Q5-P5</f>
         <v>0</v>
       </c>
-      <c r="R6" s="104">
+      <c r="R6" s="103">
         <f t="shared" si="32"/>
-        <v>10.415999999999997</v>
-      </c>
-      <c r="S6" s="104">
+        <v>12.01600000000002</v>
+      </c>
+      <c r="S6" s="103">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="T6" s="104">
+      <c r="T6" s="103">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="U6" s="104">
+      <c r="U6" s="103">
         <f t="shared" si="32"/>
-        <v>11.249279999999999</v>
-      </c>
-      <c r="V6" s="104">
+        <v>12.977280000000007</v>
+      </c>
+      <c r="V6" s="103">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="W6" s="104">
+      <c r="W6" s="103">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="X6" s="104">
+      <c r="X6" s="103">
         <f t="shared" si="32"/>
-        <v>12.149222400000014</v>
-      </c>
-      <c r="Y6" s="104">
+        <v>14.015462400000018</v>
+      </c>
+      <c r="Y6" s="103">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="104">
+      <c r="Z6" s="103">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="186">
+      <c r="AA6" s="151">
         <f t="shared" ref="AA6" si="33">SUM(O6:Z6)</f>
-        <v>54.014502399999998</v>
-      </c>
-      <c r="AB6" s="104">
+        <v>59.208742400000034</v>
+      </c>
+      <c r="AB6" s="103">
         <f>AB5-Z5</f>
-        <v>24.60217535999999</v>
-      </c>
-      <c r="AC6" s="104">
+        <v>28.381311359999984</v>
+      </c>
+      <c r="AC6" s="103">
         <f>AC5-AB5</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="104">
+      <c r="AD6" s="103">
         <f t="shared" ref="AD6:AM6" si="34">AD5-AC5</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="104">
+      <c r="AE6" s="103">
         <f t="shared" si="34"/>
-        <v>15.089334220800026</v>
-      </c>
-      <c r="AF6" s="104">
+        <v>17.407204300800004</v>
+      </c>
+      <c r="AF6" s="103">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="104">
+      <c r="AG6" s="103">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AH6" s="104">
+      <c r="AH6" s="103">
         <f t="shared" si="34"/>
-        <v>10.185300599040005</v>
-      </c>
-      <c r="AI6" s="104">
+        <v>11.749862903040025</v>
+      </c>
+      <c r="AI6" s="103">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AJ6" s="104">
+      <c r="AJ6" s="103">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AK6" s="104">
+      <c r="AK6" s="103">
         <f t="shared" si="34"/>
-        <v>17.111305006387227</v>
-      </c>
-      <c r="AL6" s="104">
+        <v>19.739769677107205</v>
+      </c>
+      <c r="AL6" s="103">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AM6" s="104">
+      <c r="AM6" s="103">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AN6" s="186">
+      <c r="AN6" s="151">
         <f t="shared" ref="AN6" si="35">SUM(AB6:AM6)</f>
-        <v>66.988115186227247</v>
-      </c>
-      <c r="AO6" s="104">
+        <v>77.278148240947218</v>
+      </c>
+      <c r="AO6" s="103">
         <f>AO5-AM5</f>
-        <v>2.3100261758622764</v>
-      </c>
-      <c r="AP6" s="104">
+        <v>2.664868906409481</v>
+      </c>
+      <c r="AP6" s="103">
         <f>AP5-AO5</f>
         <v>0</v>
       </c>
-      <c r="AQ6" s="104">
+      <c r="AQ6" s="103">
         <f t="shared" ref="AQ6:AZ6" si="36">AQ5-AP5</f>
         <v>0</v>
       </c>
-      <c r="AR6" s="104">
+      <c r="AR6" s="103">
         <f t="shared" si="36"/>
-        <v>11.665632188104496</v>
-      </c>
-      <c r="AS6" s="104">
+        <v>13.457587977367837</v>
+      </c>
+      <c r="AS6" s="103">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AT6" s="104">
+      <c r="AT6" s="103">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AU6" s="104">
+      <c r="AU6" s="103">
         <f t="shared" si="36"/>
-        <v>12.248913797509715</v>
-      </c>
-      <c r="AV6" s="104">
+        <v>14.130467376236254</v>
+      </c>
+      <c r="AV6" s="103">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AW6" s="104">
+      <c r="AW6" s="103">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AX6" s="104">
+      <c r="AX6" s="103">
         <f t="shared" si="36"/>
-        <v>12.861359487385187</v>
-      </c>
-      <c r="AY6" s="104">
+        <v>14.83699074504807</v>
+      </c>
+      <c r="AY6" s="103">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AZ6" s="104">
+      <c r="AZ6" s="103">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="BA6" s="186">
+      <c r="BA6" s="151">
         <f t="shared" ref="BA6" si="37">SUM(AO6:AZ6)</f>
-        <v>39.085931648861674</v>
-      </c>
-      <c r="BB6" s="104">
+        <v>45.089915005061641</v>
+      </c>
+      <c r="BB6" s="103">
         <f>BB5-AZ5</f>
-        <v>4.0513282385263096</v>
-      </c>
-      <c r="BC6" s="104">
+        <v>4.6736520846901044</v>
+      </c>
+      <c r="BC6" s="103">
         <f>BC5-BB5</f>
         <v>0</v>
       </c>
-      <c r="BD6" s="104">
+      <c r="BD6" s="103">
         <f t="shared" ref="BD6:BM6" si="38">BD5-BC5</f>
         <v>0</v>
       </c>
-      <c r="BE6" s="104">
+      <c r="BE6" s="103">
         <f t="shared" si="38"/>
-        <v>21.931190197889237</v>
-      </c>
-      <c r="BF6" s="104">
+        <v>25.30003661845592</v>
+      </c>
+      <c r="BF6" s="103">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="BG6" s="104">
+      <c r="BG6" s="103">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="BH6" s="104">
+      <c r="BH6" s="103">
         <f t="shared" si="38"/>
-        <v>23.685685413720364</v>
-      </c>
-      <c r="BI6" s="104">
+        <v>27.324039547932443</v>
+      </c>
+      <c r="BI6" s="103">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="BJ6" s="104">
+      <c r="BJ6" s="103">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="BK6" s="104">
+      <c r="BK6" s="103">
         <f t="shared" si="38"/>
-        <v>25.580540246818032</v>
-      </c>
-      <c r="BL6" s="104">
+        <v>29.509962711767002</v>
+      </c>
+      <c r="BL6" s="103">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="BM6" s="104">
+      <c r="BM6" s="103">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="BN6" s="186">
+      <c r="BN6" s="151">
         <f t="shared" ref="BN6" si="39">SUM(BB6:BM6)</f>
-        <v>75.248744096953942</v>
+        <v>86.80769096284547</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A7" s="115" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="157"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="127">
+      <c r="A7" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="178"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="126">
         <v>1</v>
       </c>
-      <c r="G7" s="127">
+      <c r="G7" s="126">
         <v>2</v>
       </c>
-      <c r="H7" s="127">
+      <c r="H7" s="126">
         <v>3</v>
       </c>
-      <c r="I7" s="127">
+      <c r="I7" s="126">
         <v>5</v>
       </c>
-      <c r="J7" s="127">
+      <c r="J7" s="126">
         <v>7</v>
       </c>
-      <c r="K7" s="127">
+      <c r="K7" s="126">
         <v>9</v>
       </c>
-      <c r="L7" s="127">
+      <c r="L7" s="126">
         <v>10</v>
       </c>
-      <c r="M7" s="127">
+      <c r="M7" s="126">
         <v>10</v>
       </c>
-      <c r="N7" s="186">
+      <c r="N7" s="151">
         <f>SUM(B7:M7)</f>
         <v>47</v>
       </c>
-      <c r="O7" s="104">
+      <c r="O7" s="103">
         <f>M7*1.01</f>
         <v>10.1</v>
       </c>
-      <c r="P7" s="104">
+      <c r="P7" s="103">
         <f>O7</f>
         <v>10.1</v>
       </c>
-      <c r="Q7" s="104">
+      <c r="Q7" s="103">
         <f t="shared" ref="Q7" si="40">P7</f>
         <v>10.1</v>
       </c>
-      <c r="R7" s="104">
+      <c r="R7" s="103">
         <f>Q7*1.03</f>
         <v>10.403</v>
       </c>
-      <c r="S7" s="104">
+      <c r="S7" s="103">
         <f t="shared" ref="S7" si="41">R7</f>
         <v>10.403</v>
       </c>
-      <c r="T7" s="104">
+      <c r="T7" s="103">
         <f t="shared" ref="T7" si="42">S7</f>
         <v>10.403</v>
       </c>
-      <c r="U7" s="104">
+      <c r="U7" s="103">
         <f>T7*1.05</f>
         <v>10.923150000000001</v>
       </c>
-      <c r="V7" s="104">
+      <c r="V7" s="103">
         <f t="shared" ref="V7" si="43">U7</f>
         <v>10.923150000000001</v>
       </c>
-      <c r="W7" s="104">
+      <c r="W7" s="103">
         <f t="shared" ref="W7" si="44">V7</f>
         <v>10.923150000000001</v>
       </c>
-      <c r="X7" s="104">
+      <c r="X7" s="103">
         <f>W7*1.05</f>
         <v>11.469307500000003</v>
       </c>
-      <c r="Y7" s="104">
+      <c r="Y7" s="103">
         <f t="shared" ref="Y7" si="45">X7</f>
         <v>11.469307500000003</v>
       </c>
-      <c r="Z7" s="104">
+      <c r="Z7" s="103">
         <f t="shared" ref="Z7" si="46">Y7</f>
         <v>11.469307500000003</v>
       </c>
-      <c r="AA7" s="186">
+      <c r="AA7" s="151">
         <f>SUM(O7:Z7)</f>
         <v>128.6863725</v>
       </c>
-      <c r="AB7" s="104">
+      <c r="AB7" s="103">
         <f>Z7*1.01</f>
         <v>11.584000575000003</v>
       </c>
-      <c r="AC7" s="104">
+      <c r="AC7" s="103">
         <f>AB7</f>
         <v>11.584000575000003</v>
       </c>
-      <c r="AD7" s="104">
+      <c r="AD7" s="103">
         <f t="shared" ref="AD7" si="47">AC7</f>
         <v>11.584000575000003</v>
       </c>
-      <c r="AE7" s="104">
+      <c r="AE7" s="103">
         <f>AD7*1.03</f>
         <v>11.931520592250003</v>
       </c>
-      <c r="AF7" s="104">
+      <c r="AF7" s="103">
         <f t="shared" ref="AF7" si="48">AE7</f>
         <v>11.931520592250003</v>
       </c>
-      <c r="AG7" s="104">
+      <c r="AG7" s="103">
         <f t="shared" ref="AG7" si="49">AF7</f>
         <v>11.931520592250003</v>
       </c>
-      <c r="AH7" s="104">
+      <c r="AH7" s="103">
         <f>AG7*1.05</f>
         <v>12.528096621862503</v>
       </c>
-      <c r="AI7" s="104">
+      <c r="AI7" s="103">
         <f t="shared" ref="AI7" si="50">AH7</f>
         <v>12.528096621862503</v>
       </c>
-      <c r="AJ7" s="104">
+      <c r="AJ7" s="103">
         <f t="shared" ref="AJ7" si="51">AI7</f>
         <v>12.528096621862503</v>
       </c>
-      <c r="AK7" s="104">
+      <c r="AK7" s="103">
         <f>AJ7*1.05</f>
         <v>13.154501452955628</v>
       </c>
-      <c r="AL7" s="104">
+      <c r="AL7" s="103">
         <f t="shared" ref="AL7" si="52">AK7</f>
         <v>13.154501452955628</v>
       </c>
-      <c r="AM7" s="104">
+      <c r="AM7" s="103">
         <f t="shared" ref="AM7" si="53">AL7</f>
         <v>13.154501452955628</v>
       </c>
-      <c r="AN7" s="186">
+      <c r="AN7" s="151">
         <f>SUM(AB7:AM7)</f>
         <v>147.59435772620441</v>
       </c>
-      <c r="AO7" s="104">
+      <c r="AO7" s="103">
         <f>AM7*1.01</f>
         <v>13.286046467485185</v>
       </c>
-      <c r="AP7" s="104">
+      <c r="AP7" s="103">
         <f t="shared" ref="AP7" si="54">AO7</f>
         <v>13.286046467485185</v>
       </c>
-      <c r="AQ7" s="104">
+      <c r="AQ7" s="103">
         <f t="shared" ref="AQ7" si="55">AP7</f>
         <v>13.286046467485185</v>
       </c>
-      <c r="AR7" s="104">
+      <c r="AR7" s="103">
         <f>AQ7*1.01</f>
         <v>13.418906932160038</v>
       </c>
-      <c r="AS7" s="104">
+      <c r="AS7" s="103">
         <f t="shared" ref="AS7" si="56">AR7</f>
         <v>13.418906932160038</v>
       </c>
-      <c r="AT7" s="104">
+      <c r="AT7" s="103">
         <f t="shared" ref="AT7" si="57">AS7</f>
         <v>13.418906932160038</v>
       </c>
-      <c r="AU7" s="104">
+      <c r="AU7" s="103">
         <f>AT7*1.01</f>
         <v>13.553096001481638</v>
       </c>
-      <c r="AV7" s="104">
+      <c r="AV7" s="103">
         <f t="shared" ref="AV7" si="58">AU7</f>
         <v>13.553096001481638</v>
       </c>
-      <c r="AW7" s="104">
+      <c r="AW7" s="103">
         <f t="shared" ref="AW7" si="59">AV7</f>
         <v>13.553096001481638</v>
       </c>
-      <c r="AX7" s="104">
+      <c r="AX7" s="103">
         <f>AW7*1.05</f>
         <v>14.23075080155572</v>
       </c>
-      <c r="AY7" s="104">
+      <c r="AY7" s="103">
         <f t="shared" ref="AY7" si="60">AX7</f>
         <v>14.23075080155572</v>
       </c>
-      <c r="AZ7" s="104">
+      <c r="AZ7" s="103">
         <f t="shared" ref="AZ7" si="61">AY7</f>
         <v>14.23075080155572</v>
       </c>
-      <c r="BA7" s="186">
+      <c r="BA7" s="151">
         <f>SUM(AO7:AZ7)</f>
         <v>163.46640060804776</v>
       </c>
-      <c r="BB7" s="104">
+      <c r="BB7" s="103">
         <f>AZ7*1.01</f>
         <v>14.373058309571277</v>
       </c>
-      <c r="BC7" s="104">
+      <c r="BC7" s="103">
         <f t="shared" ref="BC7" si="62">BB7</f>
         <v>14.373058309571277</v>
       </c>
-      <c r="BD7" s="104">
+      <c r="BD7" s="103">
         <f t="shared" ref="BD7" si="63">BC7</f>
         <v>14.373058309571277</v>
       </c>
-      <c r="BE7" s="104">
+      <c r="BE7" s="103">
         <f>BD7*1.01</f>
         <v>14.516788892666991</v>
       </c>
-      <c r="BF7" s="104">
+      <c r="BF7" s="103">
         <f t="shared" ref="BF7" si="64">BE7</f>
         <v>14.516788892666991</v>
       </c>
-      <c r="BG7" s="104">
+      <c r="BG7" s="103">
         <f t="shared" ref="BG7" si="65">BF7</f>
         <v>14.516788892666991</v>
       </c>
-      <c r="BH7" s="104">
+      <c r="BH7" s="103">
         <f>BG7*1.01</f>
         <v>14.661956781593661</v>
       </c>
-      <c r="BI7" s="104">
+      <c r="BI7" s="103">
         <f t="shared" ref="BI7" si="66">BH7</f>
         <v>14.661956781593661</v>
       </c>
-      <c r="BJ7" s="104">
+      <c r="BJ7" s="103">
         <f t="shared" ref="BJ7" si="67">BI7</f>
         <v>14.661956781593661</v>
       </c>
-      <c r="BK7" s="104">
+      <c r="BK7" s="103">
         <f>BJ7*1.05</f>
         <v>15.395054620673344</v>
       </c>
-      <c r="BL7" s="104">
+      <c r="BL7" s="103">
         <f t="shared" ref="BL7" si="68">BK7</f>
         <v>15.395054620673344</v>
       </c>
-      <c r="BM7" s="104">
+      <c r="BM7" s="103">
         <f t="shared" ref="BM7" si="69">BL7</f>
         <v>15.395054620673344</v>
       </c>
-      <c r="BN7" s="186">
+      <c r="BN7" s="151">
         <f>SUM(BB7:BM7)</f>
         <v>176.84057581351581</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A8" s="112"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="111"/>
-      <c r="W8" s="111"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="111"/>
-      <c r="AC8" s="111"/>
-      <c r="AD8" s="111"/>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="111"/>
-      <c r="AG8" s="111"/>
-      <c r="AH8" s="111"/>
-      <c r="AI8" s="111"/>
-      <c r="AJ8" s="111"/>
-      <c r="AK8" s="111"/>
-      <c r="AL8" s="111"/>
-      <c r="AM8" s="111"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="111"/>
-      <c r="AP8" s="111"/>
-      <c r="AQ8" s="111"/>
-      <c r="AR8" s="111"/>
-      <c r="AS8" s="111"/>
-      <c r="AT8" s="111"/>
-      <c r="AU8" s="111"/>
-      <c r="AV8" s="111"/>
-      <c r="AW8" s="111"/>
-      <c r="AX8" s="111"/>
-      <c r="AY8" s="111"/>
-      <c r="AZ8" s="111"/>
-      <c r="BA8" s="111"/>
-      <c r="BB8" s="111"/>
-      <c r="BC8" s="111"/>
-      <c r="BD8" s="111"/>
-      <c r="BE8" s="111"/>
-      <c r="BF8" s="111"/>
-      <c r="BG8" s="111"/>
-      <c r="BH8" s="111"/>
-      <c r="BI8" s="111"/>
-      <c r="BJ8" s="111"/>
-      <c r="BK8" s="111"/>
-      <c r="BL8" s="111"/>
-      <c r="BM8" s="111"/>
-      <c r="BN8" s="111"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
+      <c r="U8" s="110"/>
+      <c r="V8" s="110"/>
+      <c r="W8" s="110"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="110"/>
+      <c r="Z8" s="110"/>
+      <c r="AA8" s="110"/>
+      <c r="AB8" s="110"/>
+      <c r="AC8" s="110"/>
+      <c r="AD8" s="110"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="110"/>
+      <c r="AG8" s="110"/>
+      <c r="AH8" s="110"/>
+      <c r="AI8" s="110"/>
+      <c r="AJ8" s="110"/>
+      <c r="AK8" s="110"/>
+      <c r="AL8" s="110"/>
+      <c r="AM8" s="110"/>
+      <c r="AN8" s="110"/>
+      <c r="AO8" s="110"/>
+      <c r="AP8" s="110"/>
+      <c r="AQ8" s="110"/>
+      <c r="AR8" s="110"/>
+      <c r="AS8" s="110"/>
+      <c r="AT8" s="110"/>
+      <c r="AU8" s="110"/>
+      <c r="AV8" s="110"/>
+      <c r="AW8" s="110"/>
+      <c r="AX8" s="110"/>
+      <c r="AY8" s="110"/>
+      <c r="AZ8" s="110"/>
+      <c r="BA8" s="110"/>
+      <c r="BB8" s="110"/>
+      <c r="BC8" s="110"/>
+      <c r="BD8" s="110"/>
+      <c r="BE8" s="110"/>
+      <c r="BF8" s="110"/>
+      <c r="BG8" s="110"/>
+      <c r="BH8" s="110"/>
+      <c r="BI8" s="110"/>
+      <c r="BJ8" s="110"/>
+      <c r="BK8" s="110"/>
+      <c r="BL8" s="110"/>
+      <c r="BM8" s="110"/>
+      <c r="BN8" s="110"/>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A9" s="112"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="111"/>
-      <c r="W9" s="111"/>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="111"/>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="111"/>
-      <c r="AF9" s="111"/>
-      <c r="AG9" s="111"/>
-      <c r="AH9" s="111"/>
-      <c r="AI9" s="111"/>
-      <c r="AJ9" s="111"/>
-      <c r="AK9" s="111"/>
-      <c r="AL9" s="111"/>
-      <c r="AM9" s="111"/>
-      <c r="AN9" s="111"/>
-      <c r="AO9" s="111"/>
-      <c r="AP9" s="111"/>
-      <c r="AQ9" s="111"/>
-      <c r="AR9" s="111"/>
-      <c r="AS9" s="111"/>
-      <c r="AT9" s="111"/>
-      <c r="AU9" s="111"/>
-      <c r="AV9" s="111"/>
-      <c r="AW9" s="111"/>
-      <c r="AX9" s="111"/>
-      <c r="AY9" s="111"/>
-      <c r="AZ9" s="111"/>
-      <c r="BA9" s="111"/>
-      <c r="BB9" s="111"/>
-      <c r="BC9" s="111"/>
-      <c r="BD9" s="111"/>
-      <c r="BE9" s="111"/>
-      <c r="BF9" s="111"/>
-      <c r="BG9" s="111"/>
-      <c r="BH9" s="111"/>
-      <c r="BI9" s="111"/>
-      <c r="BJ9" s="111"/>
-      <c r="BK9" s="111"/>
-      <c r="BL9" s="111"/>
-      <c r="BM9" s="111"/>
-      <c r="BN9" s="111"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="110"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="110"/>
+      <c r="AH9" s="110"/>
+      <c r="AI9" s="110"/>
+      <c r="AJ9" s="110"/>
+      <c r="AK9" s="110"/>
+      <c r="AL9" s="110"/>
+      <c r="AM9" s="110"/>
+      <c r="AN9" s="110"/>
+      <c r="AO9" s="110"/>
+      <c r="AP9" s="110"/>
+      <c r="AQ9" s="110"/>
+      <c r="AR9" s="110"/>
+      <c r="AS9" s="110"/>
+      <c r="AT9" s="110"/>
+      <c r="AU9" s="110"/>
+      <c r="AV9" s="110"/>
+      <c r="AW9" s="110"/>
+      <c r="AX9" s="110"/>
+      <c r="AY9" s="110"/>
+      <c r="AZ9" s="110"/>
+      <c r="BA9" s="110"/>
+      <c r="BB9" s="110"/>
+      <c r="BC9" s="110"/>
+      <c r="BD9" s="110"/>
+      <c r="BE9" s="110"/>
+      <c r="BF9" s="110"/>
+      <c r="BG9" s="110"/>
+      <c r="BH9" s="110"/>
+      <c r="BI9" s="110"/>
+      <c r="BJ9" s="110"/>
+      <c r="BK9" s="110"/>
+      <c r="BL9" s="110"/>
+      <c r="BM9" s="110"/>
+      <c r="BN9" s="110"/>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="148"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="147" t="s">
+      <c r="C11" s="168"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="167" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="148"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="147" t="s">
+      <c r="F11" s="168"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="148"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="147" t="s">
+      <c r="I11" s="168"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="167" t="s">
         <v>119</v>
       </c>
-      <c r="L11" s="148"/>
-      <c r="M11" s="149"/>
-      <c r="N11" s="147" t="s">
+      <c r="L11" s="168"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="167" t="s">
         <v>120</v>
       </c>
-      <c r="O11" s="148"/>
-      <c r="P11" s="149"/>
+      <c r="O11" s="168"/>
+      <c r="P11" s="169"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A12" s="175" t="s">
+      <c r="A12" s="166" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="150"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="152"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="172"/>
+      <c r="N12" s="170"/>
+      <c r="O12" s="171"/>
+      <c r="P12" s="172"/>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A13" s="175"/>
-      <c r="B13" s="88" t="s">
+      <c r="A13" s="166"/>
+      <c r="B13" s="87" t="s">
         <v>122</v>
       </c>
       <c r="C13" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="87" t="s">
         <v>122</v>
       </c>
       <c r="F13" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="89" t="s">
+      <c r="G13" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="88" t="s">
+      <c r="H13" s="87" t="s">
         <v>122</v>
       </c>
       <c r="I13" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="89" t="s">
+      <c r="J13" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="K13" s="88" t="s">
+      <c r="K13" s="87" t="s">
         <v>122</v>
       </c>
       <c r="L13" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="M13" s="89" t="s">
+      <c r="M13" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="N13" s="88" t="s">
+      <c r="N13" s="87" t="s">
         <v>122</v>
       </c>
       <c r="O13" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="P13" s="89" t="s">
+      <c r="P13" s="88" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A14" s="132" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="90">
+      <c r="A14" s="131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="89">
         <f>N5</f>
-        <v>525</v>
-      </c>
-      <c r="C14" s="97">
-        <f>C39</f>
-        <v>50000</v>
-      </c>
-      <c r="D14" s="92">
+        <v>585</v>
+      </c>
+      <c r="C14" s="96">
+        <v>60000</v>
+      </c>
+      <c r="D14" s="91">
         <f>B14*C14</f>
-        <v>26250000</v>
-      </c>
-      <c r="E14" s="90">
+        <v>35100000</v>
+      </c>
+      <c r="E14" s="89">
         <f>AA5</f>
-        <v>1760.0873472000001</v>
-      </c>
-      <c r="F14" s="93">
-        <f>C14*1.0325</f>
-        <v>51625</v>
-      </c>
-      <c r="G14" s="92">
+        <v>2030.4540672000003</v>
+      </c>
+      <c r="F14" s="92" t="b">
+        <f>F27=C14*1.0325</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="91">
         <f>E14*F14</f>
-        <v>90864509.299199998</v>
-      </c>
-      <c r="H14" s="90">
+        <v>0</v>
+      </c>
+      <c r="H14" s="89">
         <f>AN5</f>
-        <v>2511.6498597206014</v>
-      </c>
-      <c r="I14" s="93">
+        <v>2897.4639702767622</v>
+      </c>
+      <c r="I14" s="92">
         <f>F14*1.0301</f>
-        <v>53178.912499999999</v>
-      </c>
-      <c r="J14" s="92">
+        <v>0</v>
+      </c>
+      <c r="J14" s="91">
         <f>H14*I14</f>
-        <v>133566808.12071913</v>
-      </c>
-      <c r="K14" s="90">
+        <v>0</v>
+      </c>
+      <c r="K14" s="89">
         <f>BA5</f>
-        <v>3016.819976085229</v>
-      </c>
-      <c r="L14" s="93">
+        <v>3480.2331828571532</v>
+      </c>
+      <c r="L14" s="92">
         <f>I14*1.0302</f>
-        <v>54784.915657500002</v>
-      </c>
-      <c r="M14" s="92">
+        <v>0</v>
+      </c>
+      <c r="M14" s="91">
         <f>K14*L14</f>
-        <v>165276227.94369045</v>
-      </c>
-      <c r="N14" s="90">
+        <v>0</v>
+      </c>
+      <c r="N14" s="89">
         <f>BN5</f>
-        <v>3705.9149746871622</v>
-      </c>
-      <c r="O14" s="93">
+        <v>4275.1799477573877</v>
+      </c>
+      <c r="O14" s="92">
         <f>L14*1.0302</f>
-        <v>56439.420110356499</v>
-      </c>
-      <c r="P14" s="92">
+        <v>0</v>
+      </c>
+      <c r="P14" s="91">
         <f>N14*O14</f>
-        <v>209159692.14962992</v>
+        <v>0</v>
       </c>
       <c r="U14" s="60"/>
       <c r="V14" s="61"/>
@@ -9477,68 +8751,68 @@
       <c r="Y14" s="61"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A15" s="132" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="90">
+      <c r="A15" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="89">
         <f>N6</f>
-        <v>110</v>
-      </c>
-      <c r="C15" s="98">
+        <v>130</v>
+      </c>
+      <c r="C15" s="97">
         <f>C40</f>
         <v>80000</v>
       </c>
-      <c r="D15" s="92">
+      <c r="D15" s="91">
         <f>C15*B15</f>
-        <v>8800000</v>
-      </c>
-      <c r="E15" s="95">
+        <v>10400000</v>
+      </c>
+      <c r="E15" s="94">
         <f>AA6</f>
-        <v>54.014502399999998</v>
-      </c>
-      <c r="F15" s="93">
+        <v>59.208742400000034</v>
+      </c>
+      <c r="F15" s="92">
         <f>C15*1.0325</f>
         <v>82600</v>
       </c>
-      <c r="G15" s="92">
+      <c r="G15" s="91">
         <f>F15*E15</f>
-        <v>4461597.89824</v>
-      </c>
-      <c r="H15" s="95">
+        <v>4890642.1222400032</v>
+      </c>
+      <c r="H15" s="94">
         <f>AN6</f>
-        <v>66.988115186227247</v>
-      </c>
-      <c r="I15" s="93">
+        <v>77.278148240947218</v>
+      </c>
+      <c r="I15" s="92">
         <f>F15*1.0325</f>
         <v>85284.5</v>
       </c>
-      <c r="J15" s="92">
+      <c r="J15" s="91">
         <f>H15*I15</f>
-        <v>5713047.9095997978</v>
-      </c>
-      <c r="K15" s="95">
+        <v>6590628.2336550634</v>
+      </c>
+      <c r="K15" s="94">
         <f>BA6</f>
-        <v>39.085931648861674</v>
-      </c>
-      <c r="L15" s="93">
+        <v>45.089915005061641</v>
+      </c>
+      <c r="L15" s="92">
         <f>I15*1.0325</f>
         <v>88056.246249999997</v>
       </c>
-      <c r="M15" s="92">
+      <c r="M15" s="91">
         <f>K15*L15</f>
-        <v>3441760.4221828319</v>
-      </c>
-      <c r="N15" s="95">
+        <v>3970448.6590772779</v>
+      </c>
+      <c r="N15" s="94">
         <f>BN6</f>
-        <v>75.248744096953942</v>
-      </c>
-      <c r="O15" s="93">
+        <v>86.80769096284547</v>
+      </c>
+      <c r="O15" s="92">
         <f>L15*1.0325</f>
         <v>90918.074253125</v>
       </c>
-      <c r="P15" s="92">
+      <c r="P15" s="91">
         <f>N15*O15</f>
-        <v>6841470.9032612601</v>
+        <v>7892388.0927023124</v>
       </c>
       <c r="U15" s="60"/>
       <c r="V15" s="61"/>
@@ -9547,66 +8821,66 @@
       <c r="Y15" s="61"/>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A16" s="132" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="96">
+      <c r="A16" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="95">
         <f>N7</f>
         <v>47</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="96">
         <f>C41</f>
         <v>60000</v>
       </c>
-      <c r="D16" s="99">
+      <c r="D16" s="98">
         <f>B16*C16</f>
         <v>2820000</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E16" s="94">
         <f>AA7</f>
         <v>128.6863725</v>
       </c>
-      <c r="F16" s="93">
+      <c r="F16" s="92">
         <f>C16*1.0325</f>
         <v>61950</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G16" s="91">
         <f>F16*E16</f>
         <v>7972120.7763750004</v>
       </c>
-      <c r="H16" s="95">
+      <c r="H16" s="94">
         <f>AN7</f>
         <v>147.59435772620441</v>
       </c>
-      <c r="I16" s="93">
+      <c r="I16" s="92">
         <f>F16*1.0325</f>
         <v>63963.375</v>
       </c>
-      <c r="J16" s="92">
+      <c r="J16" s="91">
         <f>H16*I16</f>
         <v>9440633.2511253599</v>
       </c>
-      <c r="K16" s="95">
+      <c r="K16" s="94">
         <f>BA7</f>
         <v>163.46640060804776</v>
       </c>
-      <c r="L16" s="93">
+      <c r="L16" s="92">
         <f>I16*1.0325</f>
         <v>66042.184687500005</v>
       </c>
-      <c r="M16" s="92">
+      <c r="M16" s="91">
         <f>K16*L16</f>
         <v>10795678.219157554</v>
       </c>
-      <c r="N16" s="95">
+      <c r="N16" s="94">
         <f>BN7</f>
         <v>176.84057581351581</v>
       </c>
-      <c r="O16" s="93">
+      <c r="O16" s="92">
         <f>L16*1.0325</f>
         <v>68188.55568984375</v>
       </c>
-      <c r="P16" s="92">
+      <c r="P16" s="91">
         <f>N16*O16</f>
         <v>12058503.452083958</v>
       </c>
@@ -9617,24 +8891,24 @@
       <c r="Y16" s="59"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A17" s="132" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="92"/>
+      <c r="A17" s="131" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="89"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="91"/>
       <c r="U17" s="60"/>
       <c r="V17" s="61"/>
       <c r="W17" s="61"/>
@@ -9642,172 +8916,172 @@
       <c r="Y17" s="61"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A18" s="116"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="94"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="93"/>
     </row>
     <row r="19" spans="1:39" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="120">
+      <c r="B19" s="117"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119">
         <f>D14+D15+D17</f>
-        <v>35050000</v>
-      </c>
-      <c r="E19" s="117"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="120">
+        <v>45500000</v>
+      </c>
+      <c r="E19" s="116"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="119">
         <f>SUM(G14,G15,G17)</f>
-        <v>95326107.197439998</v>
-      </c>
-      <c r="H19" s="117"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="120">
+        <v>4890642.1222400032</v>
+      </c>
+      <c r="H19" s="116"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="119">
         <f>J14+J15+J17</f>
-        <v>139279856.03031895</v>
-      </c>
-      <c r="K19" s="117"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="120">
+        <v>6590628.2336550634</v>
+      </c>
+      <c r="K19" s="116"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="119">
         <f>M14+M15+M17</f>
-        <v>168717988.36587328</v>
-      </c>
-      <c r="N19" s="117"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="120">
+        <v>3970448.6590772779</v>
+      </c>
+      <c r="N19" s="116"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="119">
         <f>SUM(P14+P15+P17)</f>
-        <v>216001163.05289119</v>
+        <v>7892388.0927023124</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B22" s="153" t="s">
+      <c r="B22" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153" t="s">
+      <c r="C22" s="173"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153" t="s">
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153" t="s">
+      <c r="I22" s="173"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="173" t="s">
         <v>119</v>
       </c>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153" t="s">
+      <c r="L22" s="173"/>
+      <c r="M22" s="173"/>
+      <c r="N22" s="173" t="s">
         <v>120</v>
       </c>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
+      <c r="O22" s="173"/>
+      <c r="P22" s="173"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A23" s="175" t="s">
+      <c r="A23" s="166" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="87" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="88" t="s">
+      <c r="E23" s="87" t="s">
         <v>122</v>
       </c>
       <c r="F23" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="89" t="s">
+      <c r="G23" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="88" t="s">
+      <c r="H23" s="87" t="s">
         <v>122</v>
       </c>
       <c r="I23" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="J23" s="89" t="s">
+      <c r="J23" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="88" t="s">
+      <c r="K23" s="87" t="s">
         <v>122</v>
       </c>
       <c r="L23" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="M23" s="89" t="s">
+      <c r="M23" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="N23" s="88" t="s">
+      <c r="N23" s="87" t="s">
         <v>122</v>
       </c>
       <c r="O23" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="P23" s="89" t="s">
+      <c r="P23" s="88" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A24" s="175"/>
-      <c r="B24" s="88"/>
+      <c r="A24" s="166"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="63"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="63"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="87"/>
       <c r="I24" s="63"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="87"/>
       <c r="L24" s="63"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="87"/>
       <c r="O24" s="63"/>
-      <c r="P24" s="89"/>
+      <c r="P24" s="88"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A25" s="132" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="90"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="92"/>
+      <c r="A25" s="131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="91"/>
       <c r="U25" s="60"/>
       <c r="V25" s="61"/>
       <c r="W25" s="61"/>
@@ -9820,24 +9094,69 @@
       <c r="AM25" s="81"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A26" s="132" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="90"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="94"/>
+      <c r="A26" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="89">
+        <f>B15</f>
+        <v>130</v>
+      </c>
+      <c r="C26" s="92">
+        <f>60000</f>
+        <v>60000</v>
+      </c>
+      <c r="D26" s="93">
+        <f>B26*C26</f>
+        <v>7800000</v>
+      </c>
+      <c r="E26" s="89">
+        <f>E15</f>
+        <v>59.208742400000034</v>
+      </c>
+      <c r="F26" s="92">
+        <f>60000</f>
+        <v>60000</v>
+      </c>
+      <c r="G26" s="93">
+        <f>E26*F26</f>
+        <v>3552524.5440000021</v>
+      </c>
+      <c r="H26" s="89">
+        <f>H15</f>
+        <v>77.278148240947218</v>
+      </c>
+      <c r="I26" s="92">
+        <f>60000</f>
+        <v>60000</v>
+      </c>
+      <c r="J26" s="93">
+        <f>H26*I26</f>
+        <v>4636688.8944568327</v>
+      </c>
+      <c r="K26" s="89">
+        <f>K15</f>
+        <v>45.089915005061641</v>
+      </c>
+      <c r="L26" s="92">
+        <f>60000</f>
+        <v>60000</v>
+      </c>
+      <c r="M26" s="93">
+        <f>K26*L26</f>
+        <v>2705394.9003036986</v>
+      </c>
+      <c r="N26" s="89">
+        <f>N15</f>
+        <v>86.80769096284547</v>
+      </c>
+      <c r="O26" s="92">
+        <f>60000</f>
+        <v>60000</v>
+      </c>
+      <c r="P26" s="93">
+        <f>N26*O26</f>
+        <v>5208461.4577707285</v>
+      </c>
       <c r="U26" s="59"/>
       <c r="V26" s="59"/>
       <c r="W26" s="59"/>
@@ -9846,22 +9165,63 @@
       <c r="AJ26" s="81"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A27" s="132"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="94"/>
+      <c r="A27" s="131" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="89">
+        <v>12</v>
+      </c>
+      <c r="C27" s="92">
+        <v>500000</v>
+      </c>
+      <c r="D27" s="93">
+        <f>B27*C27</f>
+        <v>6000000</v>
+      </c>
+      <c r="E27" s="89">
+        <v>12</v>
+      </c>
+      <c r="F27" s="92">
+        <f>C27*1.0325</f>
+        <v>516250</v>
+      </c>
+      <c r="G27" s="93">
+        <f>E27*F27</f>
+        <v>6195000</v>
+      </c>
+      <c r="H27" s="89">
+        <v>12</v>
+      </c>
+      <c r="I27" s="92">
+        <f>F27*1.0325</f>
+        <v>533028.125</v>
+      </c>
+      <c r="J27" s="93">
+        <f>H27*I27</f>
+        <v>6396337.5</v>
+      </c>
+      <c r="K27" s="89">
+        <v>12</v>
+      </c>
+      <c r="L27" s="92">
+        <f>I27*1.0325</f>
+        <v>550351.5390625</v>
+      </c>
+      <c r="M27" s="93">
+        <f>K27*L27</f>
+        <v>6604218.46875</v>
+      </c>
+      <c r="N27" s="89">
+        <v>12</v>
+      </c>
+      <c r="O27" s="92">
+        <f>L27*1.0325</f>
+        <v>568237.96408203128</v>
+      </c>
+      <c r="P27" s="93">
+        <f>N27*O27</f>
+        <v>6818855.5689843753</v>
+      </c>
       <c r="U27" s="59"/>
       <c r="V27" s="59"/>
       <c r="W27" s="59"/>
@@ -9869,79 +9229,92 @@
       <c r="Y27" s="59"/>
       <c r="AJ27" s="81"/>
     </row>
-    <row r="28" spans="1:39" s="181" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="132" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="176"/>
-      <c r="C28" s="177"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="178"/>
-      <c r="N28" s="179"/>
-      <c r="O28" s="180"/>
-      <c r="P28" s="178"/>
-      <c r="U28" s="182"/>
-      <c r="V28" s="182"/>
-      <c r="W28" s="182"/>
-      <c r="X28" s="182"/>
-      <c r="Y28" s="182"/>
-      <c r="AJ28" s="183"/>
+    <row r="28" spans="1:39" s="146" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="131"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="143"/>
+      <c r="N28" s="144"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="143"/>
+      <c r="U28" s="147"/>
+      <c r="V28" s="147"/>
+      <c r="W28" s="147"/>
+      <c r="X28" s="147"/>
+      <c r="Y28" s="147"/>
+      <c r="AJ28" s="148"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A29" s="116"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="94"/>
+      <c r="A29" s="115"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="93"/>
       <c r="U29" s="59"/>
       <c r="V29" s="59"/>
       <c r="W29" s="59"/>
       <c r="X29" s="59"/>
       <c r="Y29" s="59"/>
     </row>
-    <row r="30" spans="1:39" s="106" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="117" t="s">
+    <row r="30" spans="1:39" s="105" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="124"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="124"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="120"/>
-      <c r="U30" s="126"/>
-      <c r="V30" s="126"/>
-      <c r="W30" s="126"/>
-      <c r="X30" s="126"/>
-      <c r="Y30" s="126"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="119">
+        <f>D26+D27</f>
+        <v>13800000</v>
+      </c>
+      <c r="E30" s="123"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="119">
+        <f>G26+G27</f>
+        <v>9747524.5440000016</v>
+      </c>
+      <c r="H30" s="123"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="119">
+        <f>J26+J27</f>
+        <v>11033026.394456834</v>
+      </c>
+      <c r="K30" s="123"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="119">
+        <f>M26+M27</f>
+        <v>9309613.3690536991</v>
+      </c>
+      <c r="N30" s="123"/>
+      <c r="O30" s="124"/>
+      <c r="P30" s="119">
+        <f>P26+P27</f>
+        <v>12027317.026755104</v>
+      </c>
+      <c r="U30" s="125"/>
+      <c r="V30" s="125"/>
+      <c r="W30" s="125"/>
+      <c r="X30" s="125"/>
+      <c r="Y30" s="125"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="63"/>
@@ -9988,11 +9361,11 @@
       <c r="I38" s="63"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="128" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" s="129"/>
-      <c r="C39" s="130">
+      <c r="A39" s="127" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="128"/>
+      <c r="C39" s="129">
         <v>50000</v>
       </c>
       <c r="D39" s="63"/>
@@ -10003,11 +9376,11 @@
       <c r="I39" s="63"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="128" t="s">
-        <v>137</v>
-      </c>
-      <c r="B40" s="129"/>
-      <c r="C40" s="129">
+      <c r="A40" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="128"/>
+      <c r="C40" s="128">
         <v>80000</v>
       </c>
       <c r="D40" s="63"/>
@@ -10018,11 +9391,11 @@
       <c r="I40" s="63"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="128" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="131"/>
-      <c r="C41" s="130">
+      <c r="A41" s="127" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="130"/>
+      <c r="C41" s="129">
         <v>60000</v>
       </c>
       <c r="D41" s="63"/>
@@ -10111,112 +9484,751 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A3:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" style="40"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D3" s="41"/>
+      <c r="F3" s="181" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="N3" s="181" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+    </row>
+    <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="67"/>
+      <c r="K4" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="45"/>
+      <c r="M4" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="72">
+        <v>1</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="38">
+        <v>1</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="27"/>
+      <c r="M5" s="38">
+        <v>1</v>
+      </c>
+      <c r="N5" s="31"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="70"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="72">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="82">
-        <v>18190.675200000001</v>
-      </c>
-      <c r="B4" s="82">
-        <f>A4+A4*5%</f>
-        <v>19100.20896</v>
-      </c>
-      <c r="C4" s="82">
-        <f t="shared" ref="C4:E4" si="0">B4+B4*5%</f>
-        <v>20055.219408000001</v>
-      </c>
-      <c r="D4" s="82">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="38">
+        <v>2</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="27"/>
+      <c r="M6" s="38">
+        <v>2</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="70"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="72">
+        <v>3</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="38">
+        <v>3</v>
+      </c>
+      <c r="F7" s="31">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32">
+        <v>0</v>
+      </c>
+      <c r="H7" s="32">
+        <v>0</v>
+      </c>
+      <c r="I7" s="33">
+        <v>0</v>
+      </c>
+      <c r="J7" s="68"/>
+      <c r="K7" s="27"/>
+      <c r="M7" s="38">
+        <v>3</v>
+      </c>
+      <c r="N7" s="31" t="e">
+        <f>F7*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O7" s="46" t="e">
+        <f>H7*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P7" s="47" t="e">
+        <f>I7*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q7" s="31" t="e">
+        <f>N7+O7+P7</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="72">
+        <v>4</v>
+      </c>
+      <c r="B8" s="29" t="e">
+        <f>'PROYECCIONES DE VTAS EN UND.'!C5*6+'PROYECCIONES DE VTAS EN UND.'!B6*12+'PROYECCIONES DE VTAS EN UND.'!#REF!*24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C8" s="29" t="e">
+        <f>B8/30</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="38">
+        <v>4</v>
+      </c>
+      <c r="F8" s="31" t="e">
+        <f>B8*#REF!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G8" s="32" t="e">
+        <f>F8/#REF!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H8" s="32" t="e">
+        <f>B8*(#REF!)/#REF!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I8" s="33" t="e">
+        <f>B8*#REF!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J8" s="68" t="e">
+        <f>I8/#REF!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K8" s="33" t="e">
+        <f>ROUND(J8,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L8" s="69"/>
+      <c r="M8" s="38">
+        <v>4</v>
+      </c>
+      <c r="N8" s="31" t="e">
+        <f>G8*#REF!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O8" s="31" t="e">
+        <f>H8*#REF!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P8" s="47" t="e">
+        <f>K8*#REF!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q8" s="31" t="e">
+        <f t="shared" ref="Q8:Q16" si="0">N8+O8+P8</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="73">
+        <v>5</v>
+      </c>
+      <c r="B9" s="30" t="e">
+        <f>'PROYECCIONES DE VTAS EN UND.'!F5*6+'PROYECCIONES DE VTAS EN UND.'!F6*12+'PROYECCIONES DE VTAS EN UND.'!#REF!*24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C9" s="29" t="e">
+        <f t="shared" ref="C9:C16" si="1">B9/30</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="39">
+        <v>5</v>
+      </c>
+      <c r="F9" s="31" t="e">
+        <f>B9*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="32" t="e">
+        <f>F9/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="32" t="e">
+        <f>B9*(#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I9" s="33" t="e">
+        <f>B9*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J9" s="68" t="e">
+        <f>I9/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K9" s="33" t="e">
+        <f t="shared" ref="K9:K16" si="2">ROUND(J9,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L9" s="69"/>
+      <c r="M9" s="39">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31" t="e">
+        <f>G9*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O9" s="31" t="e">
+        <f>H9*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P9" s="47" t="e">
+        <f>K9*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q9" s="31" t="e">
         <f t="shared" si="0"/>
-        <v>21057.9803784</v>
-      </c>
-      <c r="E4" s="82">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="72">
+        <v>6</v>
+      </c>
+      <c r="B10" s="29" t="e">
+        <f>'PROYECCIONES DE VTAS EN UND.'!G5*6+'PROYECCIONES DE VTAS EN UND.'!G6*12+'PROYECCIONES DE VTAS EN UND.'!#REF!*24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C10" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="38">
+        <v>6</v>
+      </c>
+      <c r="F10" s="31" t="e">
+        <f>B10*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G10" s="32" t="e">
+        <f>F10/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H10" s="32" t="e">
+        <f>B10*(#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I10" s="33" t="e">
+        <f>B10*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J10" s="68" t="e">
+        <f>I10/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K10" s="33" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L10" s="69"/>
+      <c r="M10" s="38">
+        <v>6</v>
+      </c>
+      <c r="N10" s="31" t="e">
+        <f>G10*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O10" s="31" t="e">
+        <f>H10*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P10" s="47" t="e">
+        <f>K10*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q10" s="31" t="e">
         <f t="shared" si="0"/>
-        <v>22110.879397320001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="82">
-        <v>2892.6688305624998</v>
-      </c>
-      <c r="B5" s="82">
-        <f t="shared" ref="B5:E6" si="1">A5+A5*5%</f>
-        <v>3037.3022720906247</v>
-      </c>
-      <c r="C5" s="82">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="72">
+        <v>7</v>
+      </c>
+      <c r="B11" s="29" t="e">
+        <f>'PROYECCIONES DE VTAS EN UND.'!H5*6+'PROYECCIONES DE VTAS EN UND.'!H6*12+'PROYECCIONES DE VTAS EN UND.'!#REF!*24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C11" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>3189.1673856951561</v>
-      </c>
-      <c r="D5" s="82">
+        <v>#REF!</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="38">
+        <v>7</v>
+      </c>
+      <c r="F11" s="31" t="e">
+        <f>B11*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G11" s="32" t="e">
+        <f>F11/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H11" s="32" t="e">
+        <f>B11*(#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I11" s="33" t="e">
+        <f>B11*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J11" s="68" t="e">
+        <f>I11/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K11" s="33" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L11" s="69"/>
+      <c r="M11" s="38">
+        <v>7</v>
+      </c>
+      <c r="N11" s="31" t="e">
+        <f>G11*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O11" s="31" t="e">
+        <f>H11*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P11" s="47" t="e">
+        <f>K11*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q11" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="72">
+        <v>8</v>
+      </c>
+      <c r="B12" s="29" t="e">
+        <f>'PROYECCIONES DE VTAS EN UND.'!I5*6+'PROYECCIONES DE VTAS EN UND.'!I6*12+'PROYECCIONES DE VTAS EN UND.'!#REF!*24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C12" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>3348.6257549799138</v>
-      </c>
-      <c r="E5" s="82">
+        <v>#REF!</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="38">
+        <v>8</v>
+      </c>
+      <c r="F12" s="31" t="e">
+        <f>B12*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G12" s="32" t="e">
+        <f>F12/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H12" s="32" t="e">
+        <f>B12*(#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I12" s="33" t="e">
+        <f>B12*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J12" s="68" t="e">
+        <f>I12/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K12" s="33" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L12" s="69"/>
+      <c r="M12" s="38">
+        <v>8</v>
+      </c>
+      <c r="N12" s="31" t="e">
+        <f>G12*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O12" s="31" t="e">
+        <f>H12*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P12" s="47" t="e">
+        <f>K12*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q12" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="72">
+        <v>9</v>
+      </c>
+      <c r="B13" s="29" t="e">
+        <f>'PROYECCIONES DE VTAS EN UND.'!J5*6+'PROYECCIONES DE VTAS EN UND.'!J6*12+'PROYECCIONES DE VTAS EN UND.'!#REF!*24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C13" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>3516.0570427289094</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="82">
-        <v>909.72237399999995</v>
-      </c>
-      <c r="B6" s="82">
+        <v>#REF!</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="38">
+        <v>9</v>
+      </c>
+      <c r="F13" s="31" t="e">
+        <f>B13*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="32" t="e">
+        <f>F13/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="32" t="e">
+        <f>B13*(#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I13" s="33" t="e">
+        <f>B13*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J13" s="68" t="e">
+        <f>I13/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K13" s="33" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L13" s="69"/>
+      <c r="M13" s="38">
+        <v>9</v>
+      </c>
+      <c r="N13" s="31" t="e">
+        <f>G13*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O13" s="31" t="e">
+        <f>H13*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P13" s="47" t="e">
+        <f>K13*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q13" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="72">
+        <v>10</v>
+      </c>
+      <c r="B14" s="29" t="e">
+        <f>'PROYECCIONES DE VTAS EN UND.'!K5*6+'PROYECCIONES DE VTAS EN UND.'!K6*12+'PROYECCIONES DE VTAS EN UND.'!#REF!*24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C14" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>955.20849269999997</v>
-      </c>
-      <c r="C6" s="82">
+        <v>#REF!</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="38">
+        <v>10</v>
+      </c>
+      <c r="F14" s="31" t="e">
+        <f>B14*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="32" t="e">
+        <f>F14/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="32" t="e">
+        <f>B14*(#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I14" s="33" t="e">
+        <f>B14*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J14" s="68" t="e">
+        <f>I14/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K14" s="33" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L14" s="69"/>
+      <c r="M14" s="38">
+        <v>10</v>
+      </c>
+      <c r="N14" s="31" t="e">
+        <f>G14*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O14" s="31" t="e">
+        <f>H14*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P14" s="47" t="e">
+        <f>K14*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q14" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="72">
+        <v>11</v>
+      </c>
+      <c r="B15" s="29" t="e">
+        <f>'PROYECCIONES DE VTAS EN UND.'!L5*6+'PROYECCIONES DE VTAS EN UND.'!L6*12+'PROYECCIONES DE VTAS EN UND.'!#REF!*24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C15" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>1002.968917335</v>
-      </c>
-      <c r="D6" s="82">
+        <v>#REF!</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="38">
+        <v>11</v>
+      </c>
+      <c r="F15" s="31" t="e">
+        <f>B15*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G15" s="32" t="e">
+        <f>F15/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="32" t="e">
+        <f>B15*(#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I15" s="33" t="e">
+        <f>B15*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J15" s="68" t="e">
+        <f>I15/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K15" s="33" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L15" s="69"/>
+      <c r="M15" s="38">
+        <v>11</v>
+      </c>
+      <c r="N15" s="31" t="e">
+        <f>G15*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O15" s="31" t="e">
+        <f>H15*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P15" s="47" t="e">
+        <f>K15*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q15" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="72">
+        <v>12</v>
+      </c>
+      <c r="B16" s="29" t="e">
+        <f>'PROYECCIONES DE VTAS EN UND.'!M5*6+'PROYECCIONES DE VTAS EN UND.'!M6*12+'PROYECCIONES DE VTAS EN UND.'!#REF!*24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C16" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>1053.1173632017501</v>
-      </c>
-      <c r="E6" s="82">
-        <f t="shared" si="1"/>
-        <v>1105.7732313618376</v>
+        <v>#REF!</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="38">
+        <v>12</v>
+      </c>
+      <c r="F16" s="31" t="e">
+        <f>B16*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G16" s="32" t="e">
+        <f>F16/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="32" t="e">
+        <f>B16*(#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I16" s="33" t="e">
+        <f>B16*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J16" s="68" t="e">
+        <f>I16/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K16" s="33" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L16" s="69"/>
+      <c r="M16" s="38">
+        <v>12</v>
+      </c>
+      <c r="N16" s="31" t="e">
+        <f>G16*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O16" s="31" t="e">
+        <f>H16*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P16" s="47" t="e">
+        <f>K16*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q16" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="77"/>
+      <c r="M17" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="49">
+        <f>350000*12</f>
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="O21" s="36" t="e">
+        <f>Q8+Q9+Q10+Q11+Q12</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="F3:K3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>